--- a/va_facility_data_2025-02-20/Soldotna VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Soldotna%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Soldotna VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Soldotna%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9bc699e90d46446b85a9e471dbe65c69"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rce836a75208f42b2960fed56867a10b2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R70c33bb4367b493a8067d70508e67dfe"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9258e6a2d53d4ef2ac8631ea161a7c25"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9ce0b43334eb4a1ea9a87b398409287c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6a4b000b138741798e9366fcae00ded0"/>
   </x:sheets>
 </x:workbook>
 </file>
